--- a/RkkInfo/RkkInfo/bin/Debug/Отчёт_Отклик.xlsx
+++ b/RkkInfo/RkkInfo/bin/Debug/Отчёт_Отклик.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Отклик</t>
+  </si>
   <si>
     <t>Наименование</t>
   </si>
@@ -35,7 +38,7 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>sadasd_Вакансия</t>
+    <t>Менеджер_Вакансия</t>
   </si>
   <si>
     <t>Хайрутдинов</t>
@@ -47,10 +50,13 @@
     <t>Фаритович</t>
   </si>
   <si>
-    <t/>
+    <t>Системный администратор</t>
   </si>
   <si>
-    <t>14.05.2023</t>
+    <t>19.05.2023</t>
+  </si>
+  <si>
+    <t>Работает</t>
   </si>
 </sst>
 </file>
@@ -58,8 +64,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -72,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +91,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,56 +117,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.3167136056083" customWidth="1"/>
+    <col min="2" max="2" width="12.6600919451032" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7213832310268" customWidth="1"/>
+    <col min="5" max="5" width="25.7502136230469" customWidth="1"/>
+    <col min="6" max="6" width="10.5382548740932" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
